--- a/src/data_sample/bancos/test_data.xlsx
+++ b/src/data_sample/bancos/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML_CONTABILIDAD_AUTOMATICA\src\data_sample\bancos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E6AC3-8C85-460C-97C8-62AEC6F328D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D6B06-19EC-4F1F-89B8-F71089D4D3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{A52967A5-0E44-4481-A4C9-A5AA7E94C7B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A52967A5-0E44-4481-A4C9-A5AA7E94C7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Aportacion de INV</t>
   </si>
   <si>
-    <t>Inversiones Cabiedes, S.L.</t>
-  </si>
-  <si>
     <t>TRF.INTERNACIONAL</t>
   </si>
   <si>
@@ -98,27 +95,15 @@
     <t>Curso 12 horas co</t>
   </si>
   <si>
-    <t>ENTAINA DIGITAL, S.L.</t>
-  </si>
-  <si>
     <t>Factura FC2025-00</t>
   </si>
   <si>
-    <t>JoinUp Green Intelligence, S.L.</t>
-  </si>
-  <si>
     <t>Facturas A-89/202</t>
   </si>
   <si>
-    <t>Vivancos Asociados Servicios Juridicos</t>
-  </si>
-  <si>
     <t>Factura 202500061</t>
   </si>
   <si>
-    <t>TEN MENSAJERIA INTEGRAL, S.L.</t>
-  </si>
-  <si>
     <t>Factura numero 46</t>
   </si>
   <si>
@@ -185,9 +170,6 @@
     <t>Constitución de l</t>
   </si>
   <si>
-    <t>Cabiedes Capital, S.L.</t>
-  </si>
-  <si>
     <t>INFORMA DB SAU</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
     <t>UNAI ANSEJO BARRA</t>
   </si>
   <si>
-    <t>01287680-VESTA CAPITAL PARTNERS</t>
-  </si>
-  <si>
     <t>IBERIA CARDS</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>Ampliacion de Cap</t>
   </si>
   <si>
-    <t>Muri Capital Investments, S.L.</t>
-  </si>
-  <si>
     <t>COLCA CAPITAL FUND II, LLC</t>
   </si>
   <si>
@@ -242,15 +218,9 @@
     <t>Facturas FB 25000</t>
   </si>
   <si>
-    <t>Grupo Adaptalia Legal Formativo, S.L.</t>
-  </si>
-  <si>
     <t>Factura A 240095</t>
   </si>
   <si>
-    <t>INTERNACIONAL M. CURIER, S.L.U</t>
-  </si>
-  <si>
     <t>Factura  8_2025</t>
   </si>
   <si>
@@ -263,15 +233,9 @@
     <t>Factura A-36/2025</t>
   </si>
   <si>
-    <t>VIVANCOS ASOCIADOS SERVICIOS JURIDICOS</t>
-  </si>
-  <si>
     <t>Ampliación de Cap</t>
   </si>
   <si>
-    <t>Albor Capital 2021, S.L.</t>
-  </si>
-  <si>
     <t>FIJO917023515.FEB</t>
   </si>
   <si>
@@ -287,15 +251,9 @@
     <t>MOV.600482694.FEB</t>
   </si>
   <si>
-    <t>00810569-INVERSIONES CABIEDES SL</t>
-  </si>
-  <si>
     <t>.Phoenix Rise Cap</t>
   </si>
   <si>
-    <t>.Phoenix Rise Capital, S.L..</t>
-  </si>
-  <si>
     <t>I.V.A. MODELO 303</t>
   </si>
   <si>
@@ -320,9 +278,6 @@
     <t>Factura IFC2411-0</t>
   </si>
   <si>
-    <t>Cualtis S.L. Unipersonal</t>
-  </si>
-  <si>
     <t>Factura  2_2025</t>
   </si>
   <si>
@@ -371,9 +326,6 @@
     <t>ADMINISTRACIÓN DEP.</t>
   </si>
   <si>
-    <t>SANITAS S A SEG.</t>
-  </si>
-  <si>
     <t>8650-55-0001538-56 000181 000001</t>
   </si>
   <si>
@@ -383,12 +335,6 @@
     <t>Aportacion de CAB</t>
   </si>
   <si>
-    <t>CABIEDES AND PARTNERS IV SCR S.A.</t>
-  </si>
-  <si>
-    <t>CABIEDES AND PARTNERS IV SCR, S.A.</t>
-  </si>
-  <si>
     <t>COL.DE REGISTRAD.</t>
   </si>
   <si>
@@ -404,9 +350,6 @@
     <t>Factura FB 250000</t>
   </si>
   <si>
-    <t>GRUPO ADAPTALIA LEGAL FORMATIVO S.L.</t>
-  </si>
-  <si>
     <t>8650-55-0001538-56 000180 000001</t>
   </si>
   <si>
@@ -416,9 +359,6 @@
     <t>Factura A-0000074</t>
   </si>
   <si>
-    <t>NOTARIO ANGEL ALMOGUERA GOMEZ</t>
-  </si>
-  <si>
     <t>P.SERV.CERTIF.</t>
   </si>
   <si>
@@ -443,9 +383,6 @@
     <t>Devolucion pago D</t>
   </si>
   <si>
-    <t>Jose Martin Gutierrez de Cabiedes</t>
-  </si>
-  <si>
     <t>01280023-INDEXA CAPITAL AV S.A.</t>
   </si>
   <si>
@@ -461,9 +398,6 @@
     <t>Reparto a cuenta de Dividendos E</t>
   </si>
   <si>
-    <t>00491809-CABIEDES PARTNERS SCR D</t>
-  </si>
-  <si>
     <t>IMPUESTOS</t>
   </si>
   <si>
@@ -497,18 +431,9 @@
     <t>8650-55-0001538-56 000178 000001</t>
   </si>
   <si>
-    <t>LEXGES ASES.S.L.</t>
-  </si>
-  <si>
     <t>Factura  A-000617</t>
   </si>
   <si>
-    <t>Notario Angel Almoguera Gomez</t>
-  </si>
-  <si>
-    <t>LAKEVIEW PARTNERS S.R.L.</t>
-  </si>
-  <si>
     <t>Factura numero 19</t>
   </si>
   <si>
@@ -533,9 +458,6 @@
     <t>Fundacion Alaine</t>
   </si>
   <si>
-    <t>Enlace Capital, S.L.</t>
-  </si>
-  <si>
     <t>Factura A-527/202</t>
   </si>
   <si>
@@ -563,9 +485,6 @@
     <t>Prestamo Particip</t>
   </si>
   <si>
-    <t>SCOOLINARY, S.L.</t>
-  </si>
-  <si>
     <t>TELEFONICA MOVILE</t>
   </si>
   <si>
@@ -599,18 +518,9 @@
     <t>Factura pendiente</t>
   </si>
   <si>
-    <t>Alexandra Gutierrez de Cabiedes.</t>
-  </si>
-  <si>
-    <t>00810086-ROAD CAPITAL S.L.</t>
-  </si>
-  <si>
     <t>COBADEFFXXX-Julius HHansen Ventu</t>
   </si>
   <si>
-    <t>Fidelis Capital Partners, S.L.</t>
-  </si>
-  <si>
     <t>01280010-CORPFIN CAPITAL SA</t>
   </si>
   <si>
@@ -621,6 +531,96 @@
   </si>
   <si>
     <t>MOV.600482694.DIC</t>
+  </si>
+  <si>
+    <t>SEGUROS S A SEG.</t>
+  </si>
+  <si>
+    <t>Alexandra Gutierrez de ENTERPRISE.</t>
+  </si>
+  <si>
+    <t>00810569-INVERSIONES ENTERPRISE SL</t>
+  </si>
+  <si>
+    <t>Jose Martin Gutierrez de ENTERPRISE</t>
+  </si>
+  <si>
+    <t>LAKEVIEW ASOCIADOS S.R.L.</t>
+  </si>
+  <si>
+    <t>ENTERPRISE AND ASOCIADOS IV SCR S.A.</t>
+  </si>
+  <si>
+    <t>ENTERPRISE AND ASOCIADOS IV SCR, S.A.</t>
+  </si>
+  <si>
+    <t>01287680-VESTA CAPITAL ASOCIADOS</t>
+  </si>
+  <si>
+    <t>00491809-ENTERPRISE ASOCIADOS SCR D</t>
+  </si>
+  <si>
+    <t>Notario Angel PEREZ Gomez</t>
+  </si>
+  <si>
+    <t>NOTARIO ANGEL PEREZ GOMEZ</t>
+  </si>
+  <si>
+    <t>FLAMENCOS Asociados Servicios Juridicos</t>
+  </si>
+  <si>
+    <t>FLAMENCOS ASOCIADOS SERVICIOS JURIDICOS</t>
+  </si>
+  <si>
+    <t>LEXGES ASES.FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>JoinUp Green Intelligence, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Inversiones ENTERPRISE, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Enlace Capital, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Cualtis FAKE, S.A. Unipersonal</t>
+  </si>
+  <si>
+    <t>SCOOLINARY, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>00810086-ROAD CAPITAL FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Fidelis Capital ASOCIADOS, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ENTAINA DIGITAL, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>TEN MENSAJERIA INTEGRAL, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>ENTERPRISE Capital, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Muri Capital Investments, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Grupo Adaptalia Legal Formativo, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>INTERNACIONAL M. CURIER, FAKE, S.A.U</t>
+  </si>
+  <si>
+    <t>GRUPO ADAPTALIA LEGAL FORMATIVO FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>Albor Capital 2021, FAKE, S.A.</t>
+  </si>
+  <si>
+    <t>.Phoenix Rise Capital, FAKE, S.A..</t>
   </si>
 </sst>
 </file>
@@ -639,17 +639,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1054,7 +1057,7 @@
   <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,16 +1068,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,7 +1091,7 @@
         <v>14507.65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,13 +1099,13 @@
         <v>45657</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
         <v>-2499.25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,13 +1113,13 @@
         <v>45657</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>-718.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,13 +1127,13 @@
         <v>45657</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
         <v>-294.56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,13 +1141,13 @@
         <v>45657</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>-1187.67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,13 +1155,13 @@
         <v>45656</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>-25037.11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,13 +1169,13 @@
         <v>45654</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>70000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1217,7 @@
         <v>-928.55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1231,7 @@
         <v>-3280.65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,13 +1253,13 @@
         <v>45650</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C14" s="3">
         <v>-105.09</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1267,13 @@
         <v>45650</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C15" s="3">
         <v>-105.09</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +1281,13 @@
         <v>45650</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C16" s="3">
         <v>-105.09</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1295,13 @@
         <v>45649</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3">
         <v>-186.43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>45649</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3">
         <v>-0.2</v>
@@ -1320,13 +1323,13 @@
         <v>45649</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>-110.38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1337,13 @@
         <v>45649</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>-43500</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1351,13 @@
         <v>45649</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3">
         <v>-3630</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
         <v>45649</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3">
         <v>-0.2</v>
@@ -1376,13 +1379,13 @@
         <v>45649</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3">
         <v>-28.8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,13 +1393,13 @@
         <v>45649</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3">
         <v>-420.05</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,13 +1407,13 @@
         <v>45649</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3">
         <v>-686.59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,7 +1421,7 @@
         <v>45649</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3">
         <v>-0.2</v>
@@ -1438,7 +1441,7 @@
         <v>-530.4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1449,7 @@
         <v>45649</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3">
         <v>-0.2</v>
@@ -1466,7 +1469,7 @@
         <v>-403.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1474,7 +1477,7 @@
         <v>45649</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3">
         <v>-0.2</v>
@@ -1488,13 +1491,13 @@
         <v>45649</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3">
         <v>-100000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,13 +1505,13 @@
         <v>45649</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C32" s="3">
         <v>-5000</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,7 +1519,7 @@
         <v>45649</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3">
         <v>-0.2</v>
@@ -1530,13 +1533,13 @@
         <v>45649</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3">
         <v>-16400</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,7 +1547,7 @@
         <v>45649</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3">
         <v>-0.2</v>
@@ -1558,13 +1561,13 @@
         <v>45649</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C36" s="3">
         <v>-1647.81</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,7 +1575,7 @@
         <v>45649</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
         <v>-0.2</v>
@@ -1586,13 +1589,13 @@
         <v>45649</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C38" s="3">
         <v>-281.68</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +1603,7 @@
         <v>45649</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3">
         <v>-0.2</v>
@@ -1614,13 +1617,13 @@
         <v>45649</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3">
         <v>-106770</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1631,7 @@
         <v>45649</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3">
         <v>-0.2</v>
@@ -1642,13 +1645,13 @@
         <v>45646</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3">
         <v>-11253.52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,13 +1659,13 @@
         <v>45645</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C43" s="3">
         <v>-1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,13 +1673,13 @@
         <v>45645</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4">
         <v>20212.96</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,7 +1687,7 @@
         <v>45645</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3">
         <v>-81.400000000000006</v>
@@ -1698,13 +1701,13 @@
         <v>45643</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C46" s="3">
         <v>-50000</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,7 +1715,7 @@
         <v>45643</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3">
         <v>-0.2</v>
@@ -1726,13 +1729,13 @@
         <v>45643</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4">
         <v>1383.38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,13 +1743,13 @@
         <v>45643</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4">
         <v>1383.38</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,13 +1757,13 @@
         <v>45643</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>-65.34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1771,13 @@
         <v>45643</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4">
         <v>5022.3100000000004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,13 +1785,13 @@
         <v>45639</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C52" s="3">
         <v>-23586.34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,7 +1799,7 @@
         <v>45639</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3">
         <v>-0.2</v>
@@ -1810,13 +1813,13 @@
         <v>45639</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C54" s="3">
         <v>-200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,7 +1827,7 @@
         <v>45639</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3">
         <v>-0.2</v>
@@ -1838,13 +1841,13 @@
         <v>45639</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C56" s="4">
         <v>131237</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,13 +1855,13 @@
         <v>45638</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="C57" s="3">
         <v>-36452</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1869,7 @@
         <v>45638</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C58" s="3">
         <v>-0.2</v>
@@ -1880,13 +1883,13 @@
         <v>45638</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3">
         <v>-3573.13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,13 +1897,13 @@
         <v>45637</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C60" s="3">
         <v>-610.79999999999995</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,7 +1911,7 @@
         <v>45637</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3">
         <v>-0.2</v>
@@ -1922,13 +1925,13 @@
         <v>45636</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C62" s="3">
         <v>-1239.07</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,13 +1939,13 @@
         <v>45636</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C63" s="3">
         <v>-35.49</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,13 +1953,13 @@
         <v>45636</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C64" s="4">
         <v>568.99</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,13 +1967,13 @@
         <v>45636</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C65" s="3">
         <v>-400.02</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>6.25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,13 +1995,13 @@
         <v>45634</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C67" s="3">
         <v>-27500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,7 +2009,7 @@
         <v>45634</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3">
         <v>-0.2</v>
@@ -2020,13 +2023,13 @@
         <v>45631</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C69" s="4">
         <v>70000</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,13 +2037,13 @@
         <v>45631</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C70" s="3">
         <v>-10.39</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,13 +2051,13 @@
         <v>45630</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>-63.46</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2062,7 +2065,7 @@
         <v>45630</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4">
         <v>201.55</v>
@@ -2076,7 +2079,7 @@
         <v>45630</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4">
         <v>10</v>
@@ -2090,13 +2093,13 @@
         <v>45629</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C74" s="3">
         <v>-1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,13 +2107,13 @@
         <v>45629</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C75" s="4">
         <v>41774.97</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2121,7 @@
         <v>45628</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C76" s="3">
         <v>-193.81</v>
@@ -2222,7 +2225,7 @@
         <v>-926.59</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,7 +2233,7 @@
         <v>45748</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C84" s="3">
         <v>-3.6</v>
@@ -2244,7 +2247,7 @@
         <v>45748</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C85" s="3">
         <v>-743.75</v>
@@ -2264,7 +2267,7 @@
         <v>-3271.06</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,13 +2275,13 @@
         <v>45748</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C87" s="3">
         <v>-3374.72</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,13 +2289,13 @@
         <v>45748</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C88" s="3">
         <v>-333.5</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,13 +2303,13 @@
         <v>45748</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C89" s="3">
         <v>-333.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,7 +2317,7 @@
         <v>45748</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C90" s="3">
         <v>-3</v>
@@ -2376,7 +2379,7 @@
         <v>-530.4</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,7 +2393,7 @@
         <v>-403.6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,13 +2401,13 @@
         <v>45747</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3">
         <v>-131.21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,13 +2415,13 @@
         <v>45747</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" s="3">
         <v>-1795.76</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,13 +2429,13 @@
         <v>45747</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="3">
         <v>-421.33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,13 +2443,13 @@
         <v>45747</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99" s="3">
         <v>-10000</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,13 +2457,13 @@
         <v>45747</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C100" s="3">
         <v>-105.85</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,13 +2471,13 @@
         <v>45747</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C101" s="3">
         <v>-1406.14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,13 +2485,13 @@
         <v>45747</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C102" s="3">
         <v>-54.26</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,13 +2499,13 @@
         <v>45747</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C103" s="3">
         <v>-3630</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,13 +2513,13 @@
         <v>45747</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C104" s="3">
         <v>-200</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,13 +2555,13 @@
         <v>45747</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C107" s="3">
         <v>-1633.24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,13 +2569,13 @@
         <v>45747</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C108" s="3">
         <v>-720.6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,13 +2583,13 @@
         <v>45747</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C109" s="3">
         <v>-307.33999999999997</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,13 +2597,13 @@
         <v>45747</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C110" s="3">
         <v>-1249.67</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,13 +2625,13 @@
         <v>45742</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C112" s="4">
         <v>63.33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,13 +2639,13 @@
         <v>45742</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C113" s="4">
         <v>7.08</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,13 +2653,13 @@
         <v>45742</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C114" s="4">
         <v>63.33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,7 +2667,7 @@
         <v>45741</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C115" s="3">
         <v>-3</v>
@@ -2678,13 +2681,13 @@
         <v>45741</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C116" s="3">
         <v>-119.14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
         <v>45741</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C117" s="3">
         <v>-3</v>
@@ -2706,13 +2709,13 @@
         <v>45741</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C118" s="3">
         <v>-108.25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,7 +2723,7 @@
         <v>45741</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C119" s="3">
         <v>-3</v>
@@ -2734,13 +2737,13 @@
         <v>45741</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C120" s="3">
         <v>-108.25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,13 +2751,13 @@
         <v>45735</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121" s="3">
         <v>-29166.67</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,13 +2765,13 @@
         <v>45735</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" s="3">
         <v>-20000</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2779,13 @@
         <v>45735</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C123" s="3">
         <v>-21431.119999999999</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,13 +2793,13 @@
         <v>45735</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C124" s="3">
         <v>-5625</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,13 +2807,13 @@
         <v>45735</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C125" s="3">
         <v>-20000</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,13 +2821,13 @@
         <v>45735</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C126" s="3">
         <v>-5000</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,7 +2835,7 @@
         <v>45735</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C127" s="3">
         <v>-81.83</v>
@@ -2846,13 +2849,13 @@
         <v>45734</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C128" s="4">
         <v>0.9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2863,13 @@
         <v>45733</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C129" s="3">
         <v>-5100</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2877,13 @@
         <v>45733</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C130" s="3">
         <v>-65.34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2891,13 @@
         <v>45729</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C131" s="4">
         <v>500</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,13 +2905,13 @@
         <v>45728</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C132" s="3">
         <v>-17604.990000000002</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2919,13 @@
         <v>45728</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C133" s="4">
         <v>500</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2933,13 @@
         <v>45727</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C134" s="4">
         <v>500</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +2975,13 @@
         <v>45727</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C137" s="4">
         <v>500</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,7 +3009,7 @@
         <v>-530.4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,7 +3023,7 @@
         <v>-403.6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,13 +3031,13 @@
         <v>45726</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C141" s="3">
         <v>-778.84</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,13 +3045,13 @@
         <v>45726</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C142" s="3">
         <v>-230.49</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,13 +3059,13 @@
         <v>45726</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C143" s="3">
         <v>-31.54</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,13 +3073,13 @@
         <v>45726</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C144" s="3">
         <v>-333.5</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,13 +3087,13 @@
         <v>45726</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C145" s="3">
         <v>-333.5</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,13 +3101,13 @@
         <v>45726</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C146" s="3">
         <v>-296.11</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,13 +3115,13 @@
         <v>45726</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C147" s="3">
         <v>-44.96</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,13 +3129,13 @@
         <v>45723</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C148" s="3">
         <v>-30000</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,13 +3143,13 @@
         <v>45721</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C149" s="4">
         <v>56907.65</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,13 +3157,13 @@
         <v>45721</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C150" s="3">
         <v>-31.2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,13 +3171,13 @@
         <v>45721</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C151" s="3">
         <v>-10.4</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,13 +3185,13 @@
         <v>45720</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C152" s="3">
         <v>-12.58</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
         <v>45719</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C154" s="3">
         <v>-186.73</v>
@@ -3224,7 +3227,7 @@
         <v>45719</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C155" s="3">
         <v>-743.75</v>
@@ -3252,13 +3255,13 @@
         <v>45716</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C157" s="3">
         <v>-3195.27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3266,13 +3269,13 @@
         <v>45716</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C158" s="3">
         <v>-2505.7399999999998</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,13 +3283,13 @@
         <v>45716</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C159" s="3">
         <v>-720.6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,13 +3297,13 @@
         <v>45716</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C160" s="3">
         <v>-312.49</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3311,13 @@
         <v>45716</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C161" s="3">
         <v>-1259.74</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,13 +3353,13 @@
         <v>45714</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="3">
         <v>-61.42</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,13 +3367,13 @@
         <v>45714</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C165" s="3">
         <v>-3630</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,13 +3381,13 @@
         <v>45714</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C166" s="3">
         <v>-55.09</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,13 +3395,13 @@
         <v>45714</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C167" s="3">
         <v>-212.09</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,13 +3409,13 @@
         <v>45714</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C168" s="3">
         <v>-46.56</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,13 +3423,13 @@
         <v>45714</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C169" s="3">
         <v>-388.82</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,13 +3437,13 @@
         <v>45714</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C170" s="3">
         <v>-418.41</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,13 +3451,13 @@
         <v>45714</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C171" s="3">
         <v>-11.4</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,13 +3465,13 @@
         <v>45714</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C172" s="3">
         <v>-2000.78</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,13 +3521,13 @@
         <v>45714</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C176" s="3">
         <v>-703.07</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,7 +3541,7 @@
         <v>-926.59</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,13 +3549,13 @@
         <v>45714</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C178" s="3">
         <v>-388.82</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,7 +3569,7 @@
         <v>-3271.06</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,13 +3577,13 @@
         <v>45714</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C180" s="3">
         <v>-1702.32</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,13 +3591,13 @@
         <v>45714</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C181" s="3">
         <v>-625.14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3633,13 @@
         <v>45713</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C184" s="3">
         <v>-119.14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3647,13 @@
         <v>45713</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C185" s="3">
         <v>-108.25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,13 +3661,13 @@
         <v>45713</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C186" s="3">
         <v>-108.25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,7 +3675,7 @@
         <v>45708</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C187" s="3">
         <v>-42.35</v>
@@ -3686,13 +3689,13 @@
         <v>45707</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C188" s="3">
         <v>-200000</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,7 +3703,7 @@
         <v>45707</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C189" s="3">
         <v>-81.400000000000006</v>
@@ -3714,13 +3717,13 @@
         <v>45705</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C190" s="3">
         <v>-65.34</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,13 +3731,13 @@
         <v>45693</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3">
         <v>-71.33</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,13 +3745,13 @@
         <v>45693</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C192" s="3">
         <v>-10.4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,13 +3759,13 @@
         <v>45692</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C193" s="3">
         <v>-332000</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,13 +3773,13 @@
         <v>45692</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3">
         <v>-33000</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,13 +3787,13 @@
         <v>45692</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C195" s="3">
         <v>-5810</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,13 +3801,13 @@
         <v>45692</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C196" s="3">
         <v>-45245.55</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3826,13 +3829,13 @@
         <v>45691</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C198" s="3">
         <v>-1957</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,13 +3843,13 @@
         <v>45691</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C199" s="3">
         <v>-1343.68</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,7 +3857,7 @@
         <v>45691</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C200" s="3">
         <v>-203.8</v>
@@ -3868,7 +3871,7 @@
         <v>45691</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C201" s="3">
         <v>-743.75</v>
@@ -3882,13 +3885,13 @@
         <v>45691</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C202" s="3">
         <v>-624.14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,13 +3899,13 @@
         <v>45689</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C203" s="3">
         <v>-119.14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,13 +3913,13 @@
         <v>45689</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C204" s="3">
         <v>-108.25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3924,13 +3927,13 @@
         <v>45689</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C205" s="3">
         <v>-108.25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,13 +3941,13 @@
         <v>45688</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C206" s="3">
         <v>-2499.25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,13 +3955,13 @@
         <v>45688</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C207" s="3">
         <v>-720.6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,13 +3969,13 @@
         <v>45688</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C208" s="4">
         <v>330000</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,13 +3983,13 @@
         <v>45688</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C209" s="3">
         <v>-294.56</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,13 +3997,13 @@
         <v>45688</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C210" s="3">
         <v>-1187.67</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,13 +4011,13 @@
         <v>45687</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C211" s="3">
         <v>-9000</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,13 +4025,13 @@
         <v>45687</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C212" s="3">
         <v>-4127.3900000000003</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4143,7 @@
         <v>-925.72</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,7 +4171,7 @@
         <v>-3269.35</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4176,13 +4179,13 @@
         <v>45682</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C223" s="4">
         <v>45000</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4190,13 +4193,13 @@
         <v>45681</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C224" s="3">
         <v>-174.11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,13 +4207,13 @@
         <v>45681</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C225" s="3">
         <v>-686.59</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,13 +4221,13 @@
         <v>45681</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C226" s="3">
         <v>-111.42</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4232,13 +4235,13 @@
         <v>45681</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C227" s="3">
         <v>-12.55</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,13 +4249,13 @@
         <v>45681</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C228" s="3">
         <v>-86.6</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,13 +4263,13 @@
         <v>45681</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C229" s="3">
         <v>-281.69</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4274,13 +4277,13 @@
         <v>45681</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C230" s="3">
         <v>-411.35</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,7 +4297,7 @@
         <v>-530.4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,7 +4311,7 @@
         <v>-403.6</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,13 +4319,13 @@
         <v>45681</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C233" s="3">
         <v>-1945.68</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4330,13 +4333,13 @@
         <v>45681</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C234" s="3">
         <v>-15970.16</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,13 +4347,13 @@
         <v>45681</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C235" s="3">
         <v>-1675.04</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4358,13 +4361,13 @@
         <v>45681</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C236" s="3">
         <v>-200</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4372,13 +4375,13 @@
         <v>45681</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C237" s="3">
         <v>-333.5</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4386,13 +4389,13 @@
         <v>45681</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C238" s="3">
         <v>-333.5</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,13 +4403,13 @@
         <v>45681</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C239" s="3">
         <v>-333.5</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,13 +4417,13 @@
         <v>45681</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C240" s="3">
         <v>-333.5</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4456,13 +4459,13 @@
         <v>45678</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C243" s="4">
         <v>12100</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4470,7 +4473,7 @@
         <v>45677</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C244" s="3">
         <v>-81.400000000000006</v>
@@ -4484,13 +4487,13 @@
         <v>45677</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C245" s="3">
         <v>-1575</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4498,13 +4501,13 @@
         <v>45677</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C246" s="4">
         <v>28680.51</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4512,13 +4515,13 @@
         <v>45677</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C247" s="3">
         <v>-5606.95</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4526,13 +4529,13 @@
         <v>45674</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C248" s="3">
         <v>-65.34</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4540,13 +4543,13 @@
         <v>45674</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C249" s="4">
         <v>1790.49</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,13 +4557,13 @@
         <v>45673</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C250" s="3">
         <v>-24052.28</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,13 +4571,13 @@
         <v>45673</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C251" s="3">
         <v>-11024.61</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4582,13 +4585,13 @@
         <v>45671</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C252" s="3">
         <v>-1040.5999999999999</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4596,13 +4599,13 @@
         <v>45671</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C253" s="3">
         <v>-1040.5999999999999</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4616,7 +4619,7 @@
         <v>10416.709999999999</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,13 +4627,13 @@
         <v>45667</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C255" s="3">
         <v>-3839.46</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4638,13 +4641,13 @@
         <v>45667</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C256" s="3">
         <v>-3240.1</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,13 +4655,13 @@
         <v>45667</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C257" s="3">
         <v>-1337.58</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,13 +4669,13 @@
         <v>45664</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C258" s="3">
         <v>-21180.46</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,7 +4683,7 @@
         <v>45664</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C259" s="3">
         <v>-0.2</v>
@@ -4694,13 +4697,13 @@
         <v>45664</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C260" s="3">
         <v>-76.39</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,13 +4711,13 @@
         <v>45664</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C261" s="3">
         <v>-10.4</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4736,7 +4739,7 @@
         <v>45659</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C263" s="3">
         <v>-193.97</v>
@@ -4750,7 +4753,7 @@
         <v>45659</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C264" s="3">
         <v>-757.1</v>
@@ -4764,13 +4767,13 @@
         <v>45659</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C265" s="3">
         <v>-2202.39</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,7 +4795,7 @@
         <v>45658</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C267" s="3">
         <v>-3</v>
@@ -4806,7 +4809,7 @@
         <v>45658</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C268" s="3">
         <v>-2.4</v>
@@ -4820,7 +4823,7 @@
         <v>45658</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C269" s="3">
         <v>-6415.78</v>
